--- a/SculptScale.xlsx
+++ b/SculptScale.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\OARConv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420A6E78-52F3-4B21-A2B3-B139FCED0DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6978E7B-F41D-4C7A-BE2F-2EEC1CB0A601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="1500" windowWidth="26205" windowHeight="15255" xr2:uid="{3592EDC1-E26D-44B5-AA85-6AA278BAB8CC}"/>
+    <workbookView xWindow="1980" yWindow="885" windowWidth="26205" windowHeight="15255" xr2:uid="{3592EDC1-E26D-44B5-AA85-6AA278BAB8CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -88,27 +88,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>計算では2になる</t>
-    <rPh sb="0" eb="2">
-      <t>ケイサン</t>
-    </rPh>
+    <t>ｓ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>微妙にずれる．境界問題？</t>
-    <rPh sb="0" eb="2">
-      <t>ビミョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キョウカイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>モンダイ</t>
-    </rPh>
+    <t>ｔ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タオル．微妙にずれる．境界問題？</t>
+    <t>タオル．</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -116,6 +104,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -133,7 +124,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,12 +134,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -173,7 +158,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -186,14 +171,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -529,18 +517,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9190657-AD50-4BEB-B717-04F47368BF6F}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="8" max="8" width="33.375" customWidth="1"/>
+    <col min="7" max="8" width="9" style="7"/>
+    <col min="11" max="11" width="7" style="1" customWidth="1"/>
+    <col min="13" max="13" width="33.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,20 +541,28 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -579,16 +577,30 @@
         <v>1024</v>
       </c>
       <c r="E2" s="1">
+        <v>32</v>
+      </c>
+      <c r="F2" s="1">
+        <v>32</v>
+      </c>
+      <c r="G2" s="6">
+        <f>B2/E2</f>
         <v>1</v>
       </c>
-      <c r="F2" s="1">
+      <c r="H2" s="6">
+        <f>C2/F2</f>
         <v>1</v>
       </c>
-      <c r="G2" s="1">
+      <c r="I2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -603,16 +615,30 @@
         <v>4096</v>
       </c>
       <c r="E3" s="1">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F3" s="1">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1">
+        <v>32</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" ref="G3:G23" si="1">B3/E3</f>
+        <v>2</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" ref="H3:H23" si="2">C3/F3</f>
+        <v>2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2</v>
+      </c>
+      <c r="L3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>11</v>
       </c>
@@ -627,16 +653,30 @@
         <v>4096</v>
       </c>
       <c r="E4" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1">
+        <v>64</v>
+      </c>
+      <c r="G4" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H4" s="6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>12</v>
       </c>
@@ -651,16 +691,30 @@
         <v>4096</v>
       </c>
       <c r="E5" s="1">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="F5" s="1">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1">
+        <v>16</v>
+      </c>
+      <c r="G5" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H5" s="6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2</v>
+      </c>
+      <c r="L5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>13</v>
       </c>
@@ -675,16 +729,33 @@
         <v>4096</v>
       </c>
       <c r="E6" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F6" s="1">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1">
+        <v>256</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>14</v>
       </c>
@@ -695,20 +766,34 @@
         <v>8</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" ref="D7" si="1">B7*C7</f>
+        <f t="shared" ref="D7" si="3">B7*C7</f>
         <v>4096</v>
       </c>
       <c r="E7" s="1">
-        <v>2</v>
+        <v>256</v>
       </c>
       <c r="F7" s="1">
-        <v>2</v>
-      </c>
-      <c r="G7" s="1">
+        <v>4</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2</v>
+      </c>
+      <c r="L7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>15</v>
       </c>
@@ -723,16 +808,33 @@
         <v>4096</v>
       </c>
       <c r="E8" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F8" s="1">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1">
+        <v>128</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>16</v>
       </c>
@@ -743,23 +845,36 @@
         <v>16</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" ref="D9" si="2">B9*C9</f>
+        <f t="shared" ref="D9" si="4">B9*C9</f>
         <v>4096</v>
       </c>
       <c r="E9" s="3">
-        <v>2</v>
-      </c>
-      <c r="F9" s="4">
+        <v>128</v>
+      </c>
+      <c r="F9" s="3">
+        <v>8</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>20</v>
       </c>
@@ -773,20 +888,32 @@
         <f>B10*C10</f>
         <v>8192</v>
       </c>
-      <c r="E10" s="5">
-        <v>2</v>
-      </c>
-      <c r="F10" s="5">
-        <v>2</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E10" s="4">
+        <v>22</v>
+      </c>
+      <c r="F10" s="4">
+        <v>44</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="1"/>
+        <v>2.9090909090909092</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" si="2"/>
+        <v>2.9090909090909092</v>
+      </c>
+      <c r="I10" s="4">
+        <v>3</v>
+      </c>
+      <c r="J10" s="4">
+        <v>3</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>21</v>
       </c>
@@ -800,20 +927,35 @@
         <f>B11*C11</f>
         <v>8192</v>
       </c>
-      <c r="E11" s="5">
-        <v>2</v>
-      </c>
-      <c r="F11" s="5">
-        <v>2</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="E11" s="4">
+        <v>44</v>
+      </c>
+      <c r="F11" s="4">
+        <v>22</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="1"/>
+        <v>2.9090909090909092</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" si="2"/>
+        <v>2.9090909090909092</v>
+      </c>
+      <c r="I11" s="4">
+        <v>3</v>
+      </c>
+      <c r="J11" s="4">
+        <v>3</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>30</v>
       </c>
@@ -828,16 +970,28 @@
         <v>16384</v>
       </c>
       <c r="E12" s="1">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="F12" s="1">
-        <v>4</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I12" s="1">
+        <v>4</v>
+      </c>
+      <c r="J12" s="1">
+        <v>4</v>
+      </c>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>31</v>
       </c>
@@ -852,19 +1006,31 @@
         <v>16384</v>
       </c>
       <c r="E13" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F13" s="1">
+        <v>64</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I13" s="1">
+        <v>4</v>
+      </c>
+      <c r="J13" s="1">
         <v>16</v>
       </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="L13" s="3"/>
+      <c r="M13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>32</v>
       </c>
@@ -875,14 +1041,29 @@
         <v>64</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" ref="D14:D18" si="3">B14*C14</f>
+        <f t="shared" ref="D14:D18" si="5">B14*C14</f>
         <v>16384</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E14" s="1">
+        <v>64</v>
+      </c>
+      <c r="F14" s="1">
+        <v>16</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>33</v>
       </c>
@@ -893,20 +1074,32 @@
         <v>512</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16384</v>
       </c>
       <c r="E15" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F15" s="1">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+        <v>128</v>
+      </c>
+      <c r="G15" s="6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I15" s="1">
+        <v>4</v>
+      </c>
+      <c r="J15" s="1">
+        <v>4</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>34</v>
       </c>
@@ -917,20 +1110,33 @@
         <v>32</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16384</v>
       </c>
-      <c r="E16" s="3">
-        <v>4</v>
-      </c>
-      <c r="F16" s="3">
-        <v>4</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E16" s="1">
+        <v>128</v>
+      </c>
+      <c r="F16" s="1">
+        <v>8</v>
+      </c>
+      <c r="G16" s="6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I16" s="3">
+        <v>4</v>
+      </c>
+      <c r="J16" s="3">
+        <v>4</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>35</v>
       </c>
@@ -941,14 +1147,29 @@
         <v>1024</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16384</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E17" s="1">
+        <v>8</v>
+      </c>
+      <c r="F17" s="1">
+        <v>128</v>
+      </c>
+      <c r="G17" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>36</v>
       </c>
@@ -959,23 +1180,40 @@
         <v>16</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16384</v>
       </c>
       <c r="E18" s="1">
-        <v>4</v>
+        <v>256</v>
       </c>
       <c r="F18" s="1">
         <v>4</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H18" s="6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I18" s="1">
+        <v>4</v>
+      </c>
+      <c r="J18" s="1">
+        <v>4</v>
+      </c>
+      <c r="K18" s="1">
         <v>0</v>
       </c>
-      <c r="H18" t="s">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>40</v>
       </c>
@@ -990,16 +1228,28 @@
         <v>65536</v>
       </c>
       <c r="E19" s="1">
+        <v>32</v>
+      </c>
+      <c r="F19" s="1">
+        <v>32</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="F19" s="1">
+      <c r="H19" s="6">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I19" s="1">
+        <v>8</v>
+      </c>
+      <c r="J19" s="1">
+        <v>8</v>
+      </c>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>50</v>
       </c>
@@ -1013,11 +1263,26 @@
         <f>B20*C20</f>
         <v>131072</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E20" s="1">
+        <v>23</v>
+      </c>
+      <c r="F20" s="1">
+        <v>44</v>
+      </c>
+      <c r="G20" s="6">
+        <f t="shared" si="1"/>
+        <v>11.130434782608695</v>
+      </c>
+      <c r="H20" s="6">
+        <f t="shared" si="2"/>
+        <v>11.636363636363637</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>51</v>
       </c>
@@ -1032,16 +1297,28 @@
         <v>131072</v>
       </c>
       <c r="E21" s="1">
+        <v>44</v>
+      </c>
+      <c r="F21" s="1">
+        <v>23</v>
+      </c>
+      <c r="G21" s="6">
+        <f t="shared" si="1"/>
+        <v>11.636363636363637</v>
+      </c>
+      <c r="H21" s="6">
+        <f t="shared" si="2"/>
+        <v>11.130434782608695</v>
+      </c>
+      <c r="I21" s="1">
+        <v>12</v>
+      </c>
+      <c r="J21" s="1">
         <v>11</v>
       </c>
-      <c r="F21" s="1">
-        <v>11</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>60</v>
       </c>
@@ -1056,19 +1333,31 @@
         <v>262144</v>
       </c>
       <c r="E22" s="1">
+        <v>32</v>
+      </c>
+      <c r="F22" s="1">
+        <v>32</v>
+      </c>
+      <c r="G22" s="6">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="F22" s="1">
+      <c r="H22" s="6">
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="I22" s="1">
+        <v>16</v>
+      </c>
+      <c r="J22" s="1">
+        <v>16</v>
+      </c>
+      <c r="L22" s="1"/>
+      <c r="M22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>70</v>
       </c>
@@ -1088,10 +1377,22 @@
       <c r="F23" s="1">
         <v>32</v>
       </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="G23" s="6">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="H23" s="6">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="I23" s="1">
+        <v>32</v>
+      </c>
+      <c r="J23" s="1">
+        <v>32</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="M23" t="s">
         <v>7</v>
       </c>
     </row>
